--- a/ESE516_Shipwars_Altium/Project Outputs for ESE516_Shipwars/BOM/PCBNG BOM-ESE516_Shipwars_BOM(Build_Alt).xlsx
+++ b/ESE516_Shipwars_Altium/Project Outputs for ESE516_Shipwars/BOM/PCBNG BOM-ESE516_Shipwars_BOM(Build_Alt).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nestor\sofiapan\GitHub\Shipwars\ESE516_Shipwars_Altium\Project Outputs for ESE516_Shipwars\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29F9F4C-062C-4119-A7C1-FC7FF0346E1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC08E14-F526-494B-B430-9BD0B050C07C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{26F9F448-0AAF-489B-B5F5-C9B39FF69535}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="346">
   <si>
     <t>Line #</t>
   </si>
@@ -1066,42 +1066,6 @@
   </si>
   <si>
     <t>535-9542-2-ND</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>4x4 Keypad</t>
-  </si>
-  <si>
-    <t>Adafruit NeoTrellis RGB Driver PCB for 4x4 Keypad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Adafruit </t>
-  </si>
-  <si>
-    <t>3954</t>
-  </si>
-  <si>
-    <t>Manual Solution</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Keypad Silicone</t>
-  </si>
-  <si>
-    <t>Silicone Elastomer 4x4 Button Keypad - for 3mm LEDs</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>Not Fitted</t>
   </si>
 </sst>
 </file>
@@ -1478,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B168D1F-C2CE-495F-8222-E28B9C15FE57}">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
-      <selection activeCell="L95" sqref="L95"/>
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5158,82 +5122,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="J98" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="K98" s="1">
-        <v>25</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="J99" s="1">
-        <v>4.95</v>
-      </c>
-      <c r="K99" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
